--- a/web-platform_22_02_dev/static/media/admin/account/export_users.xlsx
+++ b/web-platform_22_02_dev/static/media/admin/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,1206 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Расмухамбетов</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Бауыржан</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Елемысович</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Машинист экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>890517350328</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>temp_4YtRd1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Рамеев</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Асхатович</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>932877</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>900415351168</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>temp_7LMGa2</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ремонтники ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Рамазанов</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Рустам</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ануарбекович</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>931060</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>891129350143</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>temp_H34ODQ</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Отдел управления проектами и бережливого производства</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Отдел управления проектами и бережливого производства</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Ракишева</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Анатольевна</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6775</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Менеджер</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>870815450509</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>temp_1XDNfu</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Группа весового хозяйства</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Райков</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>65005</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>710426350407</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>temp_HerU90</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Участок по эксплуатации электросетей в карьере</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Разживин</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Вадим</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Станиславович</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3551</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Старший энергетик</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>841015350144</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>temp_faCHTd</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>участок вулканизации лент</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Раев</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Габиден</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Торебекович</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>933190</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>830131351624</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>temp_MRK6qX</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Отдел по экономике и развитию</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Отдел по экономике и развитию</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Радионова</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Владимировна</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>932257</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ведущий экономист по планированию и анализу</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>820722450356</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>temp_5fCyNc</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Пышный</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Юрий</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2467</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Водитель погрузчика (ХСМG ZL50G)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>610101305959</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>temp_f4s8nK</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Пышный</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>831127350161</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>temp_ESL976</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>производственно-техническая служба ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Пушкарёв</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Михайлович</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>24601</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Дробильщик</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>730327350185</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>temp_aoELd4</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ЦЗ буровой</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Пушкарев</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Игорь</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Михайлович</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5831</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Горный мастер буровых работ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>760108350259</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>temp_KtwWIR</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Путилов</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Владислав</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Вячеславович</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>932638</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>900909351460</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>temp_2RIUyy</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Путилина</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Валентиновна</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>28075</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Электромонтер по обслуживанию подстанции</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>760505400356</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>temp_z6TASq</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ЦЗ взрывной</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Путилина</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Андреевна</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>932183</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Раздатчик взрывчатых материалов</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>940716400956</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>temp_DTyi9h</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
